--- a/data/input/absenteeism_data_26.xlsx
+++ b/data/input/absenteeism_data_26.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>62975</v>
+        <v>64422</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diogo Nogueira</t>
+          <t>Marina Martins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45092</v>
+        <v>45096</v>
       </c>
       <c r="G2" t="n">
-        <v>12380.56</v>
+        <v>11616.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4127</v>
+        <v>79470</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dra. Sophie Cunha</t>
+          <t>Danilo da Mata</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,82 +526,82 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45082</v>
+        <v>45078</v>
       </c>
       <c r="G3" t="n">
-        <v>2815.13</v>
+        <v>3143.32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10911</v>
+        <v>1056</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Breno Farias</t>
+          <t>Luiz Miguel Silva</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45098</v>
+        <v>45080</v>
       </c>
       <c r="G4" t="n">
-        <v>11427.91</v>
+        <v>12145.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28825</v>
+        <v>18145</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Emanuel das Neves</t>
+          <t>Fernanda Rocha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45102</v>
+        <v>45099</v>
       </c>
       <c r="G5" t="n">
-        <v>4145.78</v>
+        <v>9261.190000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>45713</v>
+        <v>38840</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bárbara Silva</t>
+          <t>Davi Luiz Barbosa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,158 +610,158 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="G6" t="n">
-        <v>2710.68</v>
+        <v>10240.58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>73260</v>
+        <v>39537</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ana Sophia Carvalho</t>
+          <t>Kevin Cardoso</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45093</v>
+        <v>45083</v>
       </c>
       <c r="G7" t="n">
-        <v>9513.82</v>
+        <v>8839.700000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9007</v>
+        <v>13257</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Augusto Cardoso</t>
+          <t>Clara Viana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45079</v>
+        <v>45093</v>
       </c>
       <c r="G8" t="n">
-        <v>8326.99</v>
+        <v>8275.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14463</v>
+        <v>53590</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Esther Caldeira</t>
+          <t>Helena Farias</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45092</v>
       </c>
       <c r="G9" t="n">
-        <v>5821.03</v>
+        <v>7705.23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>91500</v>
+        <v>28730</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kevin Novaes</t>
+          <t>Antônio Barbosa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45100</v>
+        <v>45078</v>
       </c>
       <c r="G10" t="n">
-        <v>12303.22</v>
+        <v>9544.780000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>64321</v>
+        <v>94771</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rebeca Aragão</t>
+          <t>Thomas Peixoto</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45093</v>
+        <v>45084</v>
       </c>
       <c r="G11" t="n">
-        <v>10531.16</v>
+        <v>8488.58</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_26.xlsx
+++ b/data/input/absenteeism_data_26.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>64422</v>
+        <v>84905</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marina Martins</t>
+          <t>André da Cruz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45096</v>
+        <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>11616.05</v>
+        <v>5534.56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79470</v>
+        <v>9135</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Danilo da Mata</t>
+          <t>Heitor Vieira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,22 +523,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45078</v>
+        <v>45097</v>
       </c>
       <c r="G3" t="n">
-        <v>3143.32</v>
+        <v>12377.19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1056</v>
+        <v>98463</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luiz Miguel Silva</t>
+          <t>Dr. Enrico Silveira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,147 +548,147 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45080</v>
+        <v>45093</v>
       </c>
       <c r="G4" t="n">
-        <v>12145.26</v>
+        <v>4311.16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>18145</v>
+        <v>68518</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fernanda Rocha</t>
+          <t>Sarah Silveira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="G5" t="n">
-        <v>9261.190000000001</v>
+        <v>2740.67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>38840</v>
+        <v>87929</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Davi Luiz Barbosa</t>
+          <t>Sophia Ramos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45100</v>
+        <v>45105</v>
       </c>
       <c r="G6" t="n">
-        <v>10240.58</v>
+        <v>9819.389999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>39537</v>
+        <v>41461</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kevin Cardoso</t>
+          <t>Maria Vitória Silveira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45083</v>
+        <v>45090</v>
       </c>
       <c r="G7" t="n">
-        <v>8839.700000000001</v>
+        <v>2873.79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13257</v>
+        <v>49469</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Clara Viana</t>
+          <t>Kamilly Cardoso</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45093</v>
+        <v>45094</v>
       </c>
       <c r="G8" t="n">
-        <v>8275.33</v>
+        <v>8321.040000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>53590</v>
+        <v>8134</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Helena Farias</t>
+          <t>Felipe Lopes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,51 +697,51 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45092</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>7705.23</v>
+        <v>7893.41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28730</v>
+        <v>83606</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Antônio Barbosa</t>
+          <t>Henrique Rezende</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45078</v>
+        <v>45085</v>
       </c>
       <c r="G10" t="n">
-        <v>9544.780000000001</v>
+        <v>9065.17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>94771</v>
+        <v>39133</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Thomas Peixoto</t>
+          <t>Alice Fogaça</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45084</v>
+        <v>45082</v>
       </c>
       <c r="G11" t="n">
-        <v>8488.58</v>
+        <v>9581.559999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_26.xlsx
+++ b/data/input/absenteeism_data_26.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>84905</v>
+        <v>50300</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>André da Cruz</t>
+          <t>Sr. Diego Jesus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45078</v>
+        <v>45097</v>
       </c>
       <c r="G2" t="n">
-        <v>5534.56</v>
+        <v>9932</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9135</v>
+        <v>96710</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Heitor Vieira</t>
+          <t>Carlos Eduardo Alves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,142 +519,142 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>12377.19</v>
+        <v>8191.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98463</v>
+        <v>29145</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. Enrico Silveira</t>
+          <t>Juan Vieira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45093</v>
+        <v>45102</v>
       </c>
       <c r="G4" t="n">
-        <v>4311.16</v>
+        <v>6579.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68518</v>
+        <v>20704</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sarah Silveira</t>
+          <t>Dr. Lucca Mendes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45100</v>
+        <v>45095</v>
       </c>
       <c r="G5" t="n">
-        <v>2740.67</v>
+        <v>2689.79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>87929</v>
+        <v>55241</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sophia Ramos</t>
+          <t>Diego da Rosa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45105</v>
+        <v>45078</v>
       </c>
       <c r="G6" t="n">
-        <v>9819.389999999999</v>
+        <v>8741.58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>41461</v>
+        <v>91905</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maria Vitória Silveira</t>
+          <t>Dr. João Felipe Viana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45090</v>
+        <v>45080</v>
       </c>
       <c r="G7" t="n">
-        <v>2873.79</v>
+        <v>3936.34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>49469</v>
+        <v>3948</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kamilly Cardoso</t>
+          <t>Lorena Barbosa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,31 +664,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45094</v>
+        <v>45105</v>
       </c>
       <c r="G8" t="n">
-        <v>8321.040000000001</v>
+        <v>10799.53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8134</v>
+        <v>62761</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Felipe Lopes</t>
+          <t>Sr. Luiz Gustavo Duarte</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,56 +697,56 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45098</v>
       </c>
       <c r="G9" t="n">
-        <v>7893.41</v>
+        <v>9055.120000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>83606</v>
+        <v>59328</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Henrique Rezende</t>
+          <t>Julia Almeida</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45085</v>
+        <v>45100</v>
       </c>
       <c r="G10" t="n">
-        <v>9065.17</v>
+        <v>3549.71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>39133</v>
+        <v>88582</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alice Fogaça</t>
+          <t>Miguel Aragão</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45082</v>
+        <v>45085</v>
       </c>
       <c r="G11" t="n">
-        <v>9581.559999999999</v>
+        <v>8426.280000000001</v>
       </c>
     </row>
   </sheetData>
